--- a/ProjectJava/data/Ecole.xlsx
+++ b/ProjectJava/data/Ecole.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{070048C6-0359-483F-9092-B23480B3CBAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{9BBA0B15-DB5B-4543-BC9C-4A66690BA600}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="20790" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="20790" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="21">
   <si>
     <t>Nom</t>
   </si>
@@ -44,10 +44,46 @@
     <t>ONDA</t>
   </si>
   <si>
+    <t>Ingenierie</t>
+  </si>
+  <si>
+    <t>CASA-NOUACEUR</t>
+  </si>
+  <si>
     <t>ING</t>
   </si>
   <si>
+    <t>AIOJF</t>
+  </si>
+  <si>
+    <t>RIO</t>
+  </si>
+  <si>
+    <t>RFJ</t>
+  </si>
+  <si>
+    <t>RE</t>
+  </si>
+  <si>
+    <t>JIRF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ONDA </t>
+  </si>
+  <si>
     <t>CASA</t>
+  </si>
+  <si>
+    <t>Ingénierie</t>
+  </si>
+  <si>
+    <t>Casa-Nouaceur</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>AA</t>
   </si>
 </sst>
 </file>
@@ -369,7 +405,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -400,19 +436,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25"/>
